--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_XemDSnhânsự(Web).xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_XemDSnhânsự(Web).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960259FD-22B2-404D-B130-39A24054A50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CE272-F8FF-4365-9837-8C1E2EBF4F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>Author</t>
   </si>
@@ -230,21 +230,12 @@
     <t xml:space="preserve">Trịnh như Phương </t>
   </si>
   <si>
-    <t>hiện thị tên nhân sự  theo thứ tự 1-A-Z</t>
-  </si>
-  <si>
     <t>TR-BDS-XDSNS-1</t>
   </si>
   <si>
     <t>TR-BDS-XDSNS-2</t>
   </si>
   <si>
-    <t>Có nhân sự : 
--Tên:Nguyễn Văn A 
--Năm sinh : 1999
--sdt: 09854252212</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thỉ giao diện trang chủ </t>
   </si>
   <si>
@@ -257,27 +248,9 @@
     <t xml:space="preserve">Trong mục thông tin , nhấn chọn nhân sự </t>
   </si>
   <si>
-    <t>Hiển thị giao diên danh sách nhân sự gồm :
--Tên:Nguyễn Văn A 
--Năm sinh : 1999
--sdt: 09854252212</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diên danh sách nhân sự theo thứ tự từ A_Z</t>
-  </si>
-  <si>
     <t>Test Cases for ''Xem Danh sách nhân sự   "</t>
   </si>
   <si>
-    <t>Có ds nhân sự : 
--Tên:Nguyễn Văn A 
--Năm sinh : 1999
--sdt: 09854252212
--Tên:Nguyễn Văn B 
--Năm sinh : 1988
--sdt: 0168454449</t>
-  </si>
-  <si>
     <t>Quản lý công ty Bất động Sản</t>
   </si>
   <si>
@@ -287,25 +260,83 @@
     <t>Xem Danh Sách Nhân Sự Web</t>
   </si>
   <si>
-    <t>Hiển thị danh sách các nhân sự trong công ty bao gồm : tên nhân sự , năm sinh , sdt</t>
-  </si>
-  <si>
     <t>TR-BDS-XDSNSW-1</t>
   </si>
   <si>
     <t>TR-BDS-XDSNSW-2</t>
   </si>
   <si>
-    <t>kiểm tra Hiển thị danh sách các nhân sự trong công ty bao gồm : tên nhân sự , năm sinh , sdt</t>
-  </si>
-  <si>
-    <t>'Kiểm tra hiện thị tên nhân sự  theo thứ tự 1-A-Z</t>
-  </si>
-  <si>
     <t>Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin</t>
   </si>
   <si>
     <t>Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các nhân sự trong công ty bao gồm : Mã nhân viên , nhóm , chức danh , loại hợp đồng , ngày sinh , Địa chỉ , Ngày nhận việc , phòng ban , doanh số </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra Hiển thị danh sách các nhân sự trong công ty bao gồm : Mã nhân viên , nhóm , chức danh , loại hợp đồng , ngày sinh , Địa chỉ , Ngày nhận việc , phòng ban , doanh số </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có nhân sự : 
+-MNV: A123
+- Nhóm 1 
+- chức danh : nhân viên
+- loại hợp đồng : chính thức
+- ngày sinh : 04/08/1998
+- địa chỉ : 48 lê quý đôn
+-Ngày nhận : 05/12/2020
+-phòng ban : kinh doanh 
+- doanh số : 500000
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diên danh sách nhân sự gồm :
+-MNV: A123
+- Nhóm 1 
+- chức danh : nhân viên
+- loại hợp đồng : chính thức
+- ngày sinh : 04/08/1998
+- địa chỉ : 48 lê quý đôn
+-Ngày nhận : 05/12/2020
+-phòng ban : kinh doanh 
+- doanh số : 500000
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có ds nhân sự : 
+'Có nhân sự : 
+-MNV: A123
+- Nhóm 1 
+- chức danh : nhân viên
+- loại hợp đồng : chính thức
+- ngày sinh : 04/08/1998
+- địa chỉ : 48 lê quý đôn
+-Ngày nhận : 05/12/2020
+-phòng ban : kinh doanh 
+- doanh số : 500000
+ </t>
+  </si>
+  <si>
+    <t>hiện thị mã nhân viên  theo thứ tự A-Z</t>
+  </si>
+  <si>
+    <t>'Kiểm tra hiện thị mã nhân viên  theo thứ tự A-Z</t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNSW-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiện thị nút button " sửa " ở cuối danh sách </t>
+  </si>
+  <si>
+    <t>TR-BDS-XDSNS-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Kiểm tra hiện thị nút button " sửa " ở cuối danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diên danh sách nhân sự theo thứ tự từ A_Z </t>
   </si>
 </sst>
 </file>
@@ -937,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1076,6 +1107,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,27 +1152,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,10 +1212,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,10 +1233,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,21 +1254,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1231,6 +1262,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,7 +1605,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -1571,31 +1621,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1668,21 +1718,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1691,54 +1741,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1763,10 +1813,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1800,14 +1850,14 @@
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="73" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="74"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G2" s="75"/>
       <c r="H2" s="76"/>
@@ -1884,18 +1934,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>15</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>35</v>
@@ -1906,18 +1956,18 @@
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>18</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>35</v>
@@ -1927,6 +1977,38 @@
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>18</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1952,19 +2034,19 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E10</xm:sqref>
+          <xm:sqref>E9:E12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G9:G10</xm:sqref>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C345C894-9E54-44FF-8227-82A9A55946F3}">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F10</xm:sqref>
+          <xm:sqref>F9:F12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1975,11 +2057,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1988,7 +2070,7 @@
     <col min="2" max="2" width="14.140625" style="36" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="1" customWidth="1"/>
@@ -1997,17 +2079,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="A1" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2043,142 +2125,208 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83">
+      <c r="A5" s="85">
         <v>21</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>59</v>
+      <c r="B5" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="46">
         <v>1</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="46">
         <v>2</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="45" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="45" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="46">
         <v>3</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
-        <v>64</v>
+      <c r="I7" s="100" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83">
+      <c r="A8" s="85">
         <v>21</v>
       </c>
-      <c r="B8" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>75</v>
+      <c r="B8" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>76</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F8" s="46">
         <v>1</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="90"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="98"/>
       <c r="F9" s="46">
         <v>2</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="45" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="91"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="45" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="99"/>
       <c r="F10" s="41">
         <v>3</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="45" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="85">
+        <v>21</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="46">
+        <v>2</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="45" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="41">
+        <v>3</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="106" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:A10"/>
